--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258667.5707306356</v>
+        <v>268830.0395897313</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065033</v>
+        <v>4968231.017992426</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414251.77131043</v>
+        <v>22289395.1993927</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3987643.511599784</v>
+        <v>4041296.149834169</v>
       </c>
     </row>
     <row r="11">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.977552361264271</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="I23" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,16 +2360,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="25">
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y26" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>27.59002526031614</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X27" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,16 +2728,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="I28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1792675346265591</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="31">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W37" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E38" t="n">
-        <v>2.36130568012912</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="40">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V40" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="42">
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="C20" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="D20" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="E20" t="n">
-        <v>2.207202020825291</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F20" t="n">
-        <v>2.207202020825291</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="G20" t="n">
-        <v>2.207202020825291</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="H20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L20" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M20" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N20" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O20" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q20" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R20" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S20" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T20" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U20" t="n">
-        <v>85.81333917329844</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V20" t="n">
-        <v>57.94462678914073</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W20" t="n">
-        <v>30.07591440498301</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X20" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K21" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L21" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M21" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N21" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O21" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P21" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R21" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S21" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T21" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U21" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V21" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W21" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X21" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y21" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C22" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D22" t="n">
-        <v>85.81333917329844</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E22" t="n">
-        <v>57.94462678914073</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F22" t="n">
-        <v>30.07591440498301</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G22" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H22" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I22" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J22" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K22" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L22" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M22" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N22" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O22" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P22" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q22" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R22" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U22" t="n">
-        <v>108.4888536788635</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V22" t="n">
-        <v>108.4888536788635</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W22" t="n">
-        <v>108.4888536788635</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X22" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="C23" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="D23" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="E23" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="F23" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="G23" t="n">
-        <v>26.7539638887914</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="H23" t="n">
-        <v>26.7539638887914</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I23" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L23" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M23" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N23" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O23" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R23" t="n">
-        <v>82.49138865710684</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S23" t="n">
-        <v>82.49138865710684</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T23" t="n">
-        <v>54.62267627294912</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U23" t="n">
-        <v>54.62267627294912</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V23" t="n">
-        <v>54.62267627294912</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W23" t="n">
-        <v>54.62267627294912</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X23" t="n">
-        <v>26.7539638887914</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y23" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C24" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D24" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E24" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F24" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L24" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M24" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N24" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O24" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P24" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T24" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U24" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X24" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y24" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C25" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D25" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E25" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F25" t="n">
-        <v>30.07591440498301</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="G25" t="n">
-        <v>2.207202020825291</v>
+        <v>108.2734580260443</v>
       </c>
       <c r="H25" t="n">
-        <v>2.207202020825291</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="I25" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J25" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K25" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L25" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M25" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N25" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X25" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.81333917329844</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C26" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D26" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E26" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F26" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G26" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H26" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L26" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M26" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N26" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O26" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W26" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X26" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.81333917329844</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K27" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L27" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M27" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N27" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O27" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T27" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U27" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V27" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W27" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X27" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y27" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.43906297690118</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C28" t="n">
-        <v>80.43906297690118</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D28" t="n">
-        <v>80.43906297690118</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E28" t="n">
-        <v>80.43906297690118</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F28" t="n">
-        <v>80.43906297690118</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G28" t="n">
-        <v>80.43906297690118</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H28" t="n">
-        <v>80.43906297690118</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I28" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J28" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L28" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M28" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N28" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V28" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W28" t="n">
-        <v>80.43906297690118</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X28" t="n">
-        <v>80.43906297690118</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.43906297690118</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.01461603622408</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C29" t="n">
-        <v>70.01461603622408</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D29" t="n">
-        <v>70.01461603622408</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E29" t="n">
-        <v>70.01461603622408</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F29" t="n">
-        <v>42.14590365206637</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G29" t="n">
-        <v>14.27719126790864</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H29" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I29" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K29" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L29" t="n">
-        <v>2.207202020825291</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M29" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N29" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O29" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P29" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R29" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S29" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T29" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U29" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V29" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W29" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X29" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y29" t="n">
-        <v>70.01461603622408</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C30" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D30" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E30" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F30" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G30" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H30" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M30" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N30" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O30" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T30" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U30" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V30" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W30" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X30" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C31" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D31" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E31" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F31" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G31" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L31" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M31" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N31" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T31" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U31" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V31" t="n">
-        <v>57.94462678914073</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W31" t="n">
-        <v>30.07591440498301</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X31" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C32" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D32" t="n">
-        <v>14.27719126790864</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E32" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F32" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G32" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H32" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I32" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K32" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L32" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M32" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N32" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O32" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R32" t="n">
-        <v>72.39977328887976</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S32" t="n">
-        <v>72.39977328887976</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T32" t="n">
-        <v>72.39977328887976</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U32" t="n">
-        <v>70.01461603622408</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V32" t="n">
-        <v>70.01461603622408</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W32" t="n">
-        <v>42.14590365206637</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X32" t="n">
-        <v>42.14590365206637</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y32" t="n">
-        <v>42.14590365206637</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C33" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D33" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E33" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F33" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G33" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K33" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L33" t="n">
-        <v>2.207202020825291</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M33" t="n">
-        <v>2.207202020825291</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N33" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O33" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P33" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S33" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T33" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U33" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V33" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W33" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X33" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C34" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D34" t="n">
-        <v>80.62014129470579</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E34" t="n">
-        <v>52.75142891054807</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F34" t="n">
-        <v>24.88271652639035</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L34" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M34" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N34" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O34" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P34" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R34" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U34" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V34" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X34" t="n">
-        <v>108.4888536788635</v>
+        <v>108.2734580260443</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.4888536788635</v>
+        <v>68.28974392317502</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C35" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D35" t="n">
-        <v>57.94462678914073</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E35" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F35" t="n">
-        <v>30.07591440498301</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G35" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K35" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L35" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M35" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N35" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O35" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R35" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S35" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T35" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U35" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V35" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W35" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X35" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K36" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L36" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M36" t="n">
-        <v>2.207202020825291</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N36" t="n">
-        <v>28.41772601812563</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O36" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P36" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R36" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S36" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T36" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U36" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V36" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W36" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.07591440498301</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C37" t="n">
-        <v>30.07591440498301</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D37" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E37" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F37" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G37" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H37" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I37" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J37" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K37" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L37" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M37" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N37" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O37" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P37" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R37" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S37" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T37" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U37" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V37" t="n">
-        <v>108.4888536788635</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W37" t="n">
-        <v>85.81333917329844</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X37" t="n">
-        <v>57.94462678914073</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.07591440498301</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.39977328887976</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C38" t="n">
-        <v>44.53106090472204</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D38" t="n">
-        <v>16.66234852056432</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E38" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F38" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G38" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H38" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I38" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K38" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L38" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M38" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N38" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O38" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q38" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R38" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S38" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T38" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U38" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V38" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W38" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X38" t="n">
-        <v>72.39977328887976</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.39977328887976</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C39" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D39" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E39" t="n">
-        <v>86.56747182608416</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F39" t="n">
-        <v>58.69875944192644</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G39" t="n">
-        <v>30.83004705776872</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H39" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I39" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K39" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L39" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M39" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N39" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O39" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P39" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W39" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X39" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y39" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H40" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L40" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M40" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N40" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R40" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S40" t="n">
-        <v>52.75142891054807</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T40" t="n">
-        <v>24.88271652639035</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U40" t="n">
-        <v>24.88271652639035</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V40" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C41" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D41" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E41" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F41" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G41" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L41" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M41" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N41" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O41" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V41" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W41" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X41" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30.83004705776872</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C42" t="n">
-        <v>30.83004705776872</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="D42" t="n">
-        <v>30.83004705776872</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="E42" t="n">
-        <v>30.83004705776872</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="F42" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G42" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H42" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I42" t="n">
-        <v>2.961334673611005</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K42" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L42" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M42" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N42" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O42" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P42" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R42" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S42" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T42" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U42" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V42" t="n">
-        <v>30.83004705776872</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W42" t="n">
-        <v>30.83004705776872</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X42" t="n">
-        <v>30.83004705776872</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y42" t="n">
-        <v>30.83004705776872</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C43" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D43" t="n">
-        <v>85.81333917329844</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E43" t="n">
-        <v>85.81333917329844</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F43" t="n">
-        <v>85.81333917329844</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G43" t="n">
-        <v>57.94462678914073</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H43" t="n">
-        <v>30.07591440498301</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I43" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J43" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K43" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L43" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M43" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N43" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O43" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P43" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R43" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S43" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T43" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U43" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V43" t="n">
-        <v>108.4888536788635</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W43" t="n">
-        <v>108.4888536788635</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="X43" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.4888536788635</v>
+        <v>28.30602982030574</v>
       </c>
     </row>
     <row r="44">
@@ -9404,19 +9404,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N20" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O20" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P20" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L21" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>168.6093106869681</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9495,10 +9495,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9641,19 +9641,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>262.2416917349371</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M23" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P23" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9720,22 +9720,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>166.1444050401903</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M24" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N24" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9802,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9878,19 +9878,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N26" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O26" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>165.4314642346751</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L27" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M27" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10039,10 +10039,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M29" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P29" t="n">
-        <v>257.7082725202194</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10197,16 +10197,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>168.6093106869682</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N30" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O30" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P30" t="n">
-        <v>161.5644326746464</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10276,10 +10276,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L32" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O32" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>160.4496841792801</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10513,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>246.5651278099304</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L35" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M35" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N36" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O36" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10750,10 +10750,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L38" t="n">
-        <v>262.2416917349371</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -10911,16 +10911,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P39" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,10 +10987,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11063,19 +11063,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>262.2416917349371</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M41" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N41" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O41" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L42" t="n">
-        <v>165.029656544824</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -11151,13 +11151,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P42" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11224,10 +11224,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>314.6000225023228</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,16 +24023,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>227.04435865855</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C21" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,16 +24102,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V21" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>227.3936889116331</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>178.1829599431613</v>
+        <v>170.9075063754883</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>126.1667136577029</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24178,19 +24178,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24218,16 +24218,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>326.5493118569353</v>
       </c>
       <c r="I23" t="n">
-        <v>186.1745953211195</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,16 +24248,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9431583895512</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>137.8430201603266</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24336,13 +24336,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="25">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>117.8310227626151</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G25" t="n">
-        <v>140.4009540981426</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.1358939915854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24443,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D26" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y26" t="n">
-        <v>361.9366444067671</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>145.1184737279996</v>
+        <v>138.5896114865844</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W27" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X27" t="n">
-        <v>181.471690954191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,16 +24616,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>152.2496201461753</v>
       </c>
       <c r="I28" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J28" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.3437308019645</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>387.7127122548189</v>
+        <v>380.4372586871459</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>367.3697949983399</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24759,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24810,10 +24810,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24822,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="31">
@@ -24853,7 +24853,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24883,25 +24883,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>149.7033661168533</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>229.6888839633186</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>248.9843472277074</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>344.8563210650246</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="33">
@@ -24999,19 +24999,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2037335653947</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,19 +25044,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>227.3936889116331</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>121.0254477578962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="35">
@@ -25157,19 +25157,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>319.8175627926938</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F35" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>387.7127122548189</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>125.5678236918632</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25251,7 +25251,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>72.56780889232699</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>181.471690954191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25315,13 +25315,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>138.6379206569481</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,16 +25369,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W37" t="n">
-        <v>264.0742389760816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>198.119630128721</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>337.6828665106914</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D38" t="n">
-        <v>327.0930163603668</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E38" t="n">
-        <v>379.5690643921326</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25448,13 +25448,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>292.8867796421457</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25476,22 +25476,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>134.0903775323723</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>216.8295043329304</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="40">
@@ -25564,10 +25564,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>145.472922565994</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25594,22 +25594,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V40" t="n">
-        <v>229.6888839633186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,19 +25631,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>304.609323287778</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>303.4509642208484</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="42">
@@ -25707,16 +25707,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>138.5896114865844</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>72.56780889232699</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,10 +25761,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>209.2458842263967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>126.1667136577029</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25840,16 +25840,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357481.768694293</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357481.7686942929</v>
+        <v>367177.1662240801</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357481.7686942929</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357481.7686942929</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357481.768694293</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357481.7686942929</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357481.7686942929</v>
+        <v>367177.1662240801</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357481.768694293</v>
+        <v>367177.1662240802</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75255.18387201247</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="C2" t="n">
         <v>75255.18387201248</v>
       </c>
       <c r="D2" t="n">
+        <v>75255.18387201247</v>
+      </c>
+      <c r="E2" t="n">
         <v>75255.18387201249</v>
-      </c>
-      <c r="E2" t="n">
-        <v>75255.18387201248</v>
       </c>
       <c r="F2" t="n">
         <v>75255.18387201248</v>
       </c>
       <c r="G2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201249</v>
       </c>
       <c r="H2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="I2" t="n">
-        <v>80710.96958749174</v>
+        <v>82895.95959605237</v>
       </c>
       <c r="J2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="K2" t="n">
-        <v>80710.96958749178</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="L2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605242</v>
       </c>
       <c r="M2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605237</v>
       </c>
       <c r="N2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="O2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605237</v>
       </c>
       <c r="P2" t="n">
         <v>75255.18387201249</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7444.037125460638</v>
+        <v>10680.08625919725</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33424.10713942487</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="C4" t="n">
-        <v>33424.10713942487</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="D4" t="n">
-        <v>33424.10713942487</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="E4" t="n">
-        <v>33424.10713942487</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="F4" t="n">
-        <v>33424.10713942487</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="G4" t="n">
-        <v>33424.10713942487</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="H4" t="n">
-        <v>35920.31585724385</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="I4" t="n">
-        <v>35920.31585724385</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="J4" t="n">
-        <v>35920.31585724384</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="K4" t="n">
-        <v>35920.31585724385</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="L4" t="n">
-        <v>35920.31585724385</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="M4" t="n">
-        <v>35920.31585724384</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="N4" t="n">
-        <v>35920.31585724384</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="O4" t="n">
-        <v>35920.31585724386</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="P4" t="n">
-        <v>33424.10713942487</v>
+        <v>32252.22165943392</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="I5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="J5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="K5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="M5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="N5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="O5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8203.476732587595</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="C6" t="n">
-        <v>8203.476732587609</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="D6" t="n">
-        <v>8203.476732587624</v>
+        <v>9375.362212578548</v>
       </c>
       <c r="E6" t="n">
-        <v>41831.07673258761</v>
+        <v>43002.96221257858</v>
       </c>
       <c r="F6" t="n">
-        <v>41831.07673258761</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="G6" t="n">
-        <v>41831.07673258761</v>
+        <v>43002.96221257858</v>
       </c>
       <c r="H6" t="n">
-        <v>35669.14306896004</v>
+        <v>34182.43471590059</v>
       </c>
       <c r="I6" t="n">
-        <v>43113.18019442067</v>
+        <v>44862.52097509782</v>
       </c>
       <c r="J6" t="n">
-        <v>43113.1801944207</v>
+        <v>44862.52097509783</v>
       </c>
       <c r="K6" t="n">
-        <v>43113.18019442071</v>
+        <v>44862.52097509783</v>
       </c>
       <c r="L6" t="n">
-        <v>43113.1801944207</v>
+        <v>44862.52097509786</v>
       </c>
       <c r="M6" t="n">
-        <v>43113.1801944207</v>
+        <v>44862.52097509782</v>
       </c>
       <c r="N6" t="n">
-        <v>43113.1801944207</v>
+        <v>44862.52097509783</v>
       </c>
       <c r="O6" t="n">
-        <v>43113.18019442069</v>
+        <v>44862.52097509782</v>
       </c>
       <c r="P6" t="n">
-        <v>41831.07673258762</v>
+        <v>43002.96221257858</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -36124,19 +36124,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M20" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36361,19 +36361,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M24" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36598,19 +36598,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O26" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P29" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P30" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L32" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N36" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L38" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37783,19 +37783,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L42" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
